--- a/media/main-two.xlsx
+++ b/media/main-two.xlsx
@@ -29,22 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5F5F5"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -65,13 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -468,430 +456,198 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>*23344.0 &gt;&gt; 2114.45</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>19428.83</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.977743973</v>
-      </c>
+      <c r="A2" t="n">
+        <v>23344</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>2291.19</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>19928.73</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.982360245</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>*1.0 &gt;&gt; 2287.63</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>20320.16</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.988213019</v>
-      </c>
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>2305.83</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>*2344677.0 &gt;&gt; 20332.81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>*565.0 &gt;&gt; 0.990438722</t>
-        </is>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2344677</v>
+      </c>
+      <c r="D5" t="n">
+        <v>565</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>2083.02</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>20148.38</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.992004957</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>2064.94</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>*23344 &gt;&gt; 308964</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>20089.95</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0.993733992</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>23344</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>2738.17</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>20173.97</v>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>*7786.0 &gt;&gt; 0.994147744</t>
-        </is>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>7786</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>2306.2</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>20176.48</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0.995549595</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>2200.49</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>*6778.0 &gt;&gt; 20237.28</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0.994890127</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>6778</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>*23424.0 &gt;&gt; 2540.89</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>20427.22</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0.994065793</v>
-      </c>
+      <c r="A11" t="n">
+        <v>23424</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>2250.71</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>21367.38</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0.992252257</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>2032.16</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>21499.62</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0.995549595</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>*4678.0 &gt;&gt; 2136.69</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>21514.27</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0.993159025</v>
-      </c>
+      <c r="A14" t="n">
+        <v>4678</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>2065.89</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>21906.69</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>0.9928292909999999</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>2031.57</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>21760.48</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>0.992334691</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>2127.52</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>21762.15</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>0.9937360589999999</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>2057.64</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>21542.5</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0.995796895</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>2349.7</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>21268.77</v>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>*2222.0 &gt;&gt; 0.995467161</t>
-        </is>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>2222</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>1918.52</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>21049.36</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>0.9937360589999999</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>2150.62</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>20765.31</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>0.992420873</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>1899.18</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>20494.83</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>0.994398759</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>2199.41</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>20215.66</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>0.996046151</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>2005.67</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>19910.15</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>0.994313093</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>2130.58</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>19606.62</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0.991345489</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>1726.17</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>19451.88</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>0.989944121</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>1723.79</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>19281.55</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>0.989779254</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>2051.16</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>18944.38</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>0.987635985</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>2070.01</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>18717.04</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>0.989531954</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>2091.04</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>17840.62</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>0.9801345420000001</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/media/main-two.xlsx
+++ b/media/main-two.xlsx
@@ -29,12 +29,22 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5F5F5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +65,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,198 +468,430 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>23344</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>*23344.0</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>19428.83</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.977743973</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" s="3" t="n">
+        <v>2291.19</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>19928.73</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.982360245</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>*1.0</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>20320.16</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.988213019</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>2344677</v>
-      </c>
-      <c r="D5" t="n">
-        <v>565</v>
+      <c r="A5" s="3" t="n">
+        <v>2305.83</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>*2344677.0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>*565.0</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="A6" s="3" t="n">
+        <v>2083.02</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>20148.38</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.992004957</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>23344</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="A7" s="3" t="n">
+        <v>2064.94</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>*23344</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>20089.95</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.993733992</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>7786</v>
+      <c r="A8" s="3" t="n">
+        <v>2738.17</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>20173.97</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>*7786.0</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="A9" s="3" t="n">
+        <v>2306.2</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>20176.48</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.995549595</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>6778</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="A10" s="3" t="n">
+        <v>2200.49</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>*6778.0</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.994890127</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>23424</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>*23424.0</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>20427.22</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.994065793</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="A12" s="3" t="n">
+        <v>2250.71</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>21367.38</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.992252257</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="A13" s="3" t="n">
+        <v>2032.16</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>21499.62</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.995549595</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>4678</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>*4678.0</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>21514.27</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.993159025</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="A15" s="3" t="n">
+        <v>2065.89</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>21906.69</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.9928292909999999</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="A16" s="3" t="n">
+        <v>2031.57</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>21760.48</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.992334691</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="A17" s="3" t="n">
+        <v>2127.52</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>21762.15</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.9937360589999999</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="A18" s="3" t="n">
+        <v>2057.64</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>21542.5</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.995796895</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>2222</v>
+      <c r="A19" s="3" t="n">
+        <v>2349.7</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>21268.77</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>*2222.0</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="A20" s="3" t="n">
+        <v>1918.52</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>21049.36</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.9937360589999999</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="A21" s="3" t="n">
+        <v>2150.62</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>20765.31</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.992420873</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="A22" s="3" t="n">
+        <v>1899.18</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>20494.83</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.994398759</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="A23" s="3" t="n">
+        <v>2199.41</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>20215.66</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.996046151</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="A24" s="3" t="n">
+        <v>2005.67</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>19910.15</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.994313093</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="A25" s="3" t="n">
+        <v>2130.58</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>19606.62</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.991345489</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="A26" s="3" t="n">
+        <v>1726.17</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>19451.88</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.989944121</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="A27" s="3" t="n">
+        <v>1723.79</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>19281.55</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.989779254</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="A28" s="3" t="n">
+        <v>2051.16</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>18944.38</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.987635985</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="A29" s="3" t="n">
+        <v>2070.01</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>18717.04</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0.989531954</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="A30" s="3" t="n">
+        <v>2091.04</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>17840.62</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.9801345420000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
